--- a/src/main/resources/excel/rank_change_export.xlsx
+++ b/src/main/resources/excel/rank_change_export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">&lt;jt:forEach items="${labelList}" var="item" copyRight="true"&gt;${item}&lt;/jt:forEach&gt;	</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,7 +43,7 @@
         <color indexed="8"/>
         <rFont val="Lantinghei SC Heavy"/>
       </rPr>
-      <t>试</t>
+      <t>试1</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +67,7 @@
         <color indexed="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">: ${examName}    </t>
+      <t xml:space="preserve">: ${examName1}    </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,15 +86,7 @@
         <color indexed="8"/>
         <rFont val="Lantinghei SC Heavy"/>
       </rPr>
-      <t>试时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei TC Extralight"/>
-      </rPr>
-      <t>间</t>
+      <t>试2名称</t>
     </r>
     <r>
       <rPr>
@@ -102,53 +94,7 @@
         <color indexed="8"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">: ${examTime}    </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei TC Extralight"/>
-      </rPr>
-      <t>代表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei SC Heavy"/>
-      </rPr>
-      <t>单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei TC Extralight"/>
-      </rPr>
-      <t>科排名少于总分排名（即相</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei SC Heavy"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Lantinghei TC Extralight"/>
-      </rPr>
-      <t>弱科）</t>
+      <t xml:space="preserve">: ${examName2}    </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1429,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT5"/>
+  <dimension ref="A1:IT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1444,7 +1390,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1453,37 +1399,27 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
